--- a/models/calculation engines/AA price forecast/Outputs/Prices Output.xlsx
+++ b/models/calculation engines/AA price forecast/Outputs/Prices Output.xlsx
@@ -516,40 +516,40 @@
         <v>51.7</v>
       </c>
       <c r="C2" t="n">
-        <v>52.582820345961</v>
+        <v>52.58</v>
       </c>
       <c r="D2" t="n">
-        <v>52.2770211694334</v>
+        <v>52.28</v>
       </c>
       <c r="E2" t="n">
-        <v>53.1811827418864</v>
+        <v>53.18</v>
       </c>
       <c r="F2" t="n">
-        <v>54.0591193313019</v>
+        <v>54.06</v>
       </c>
       <c r="G2" t="n">
-        <v>55.9467147087873</v>
+        <v>55.95</v>
       </c>
       <c r="H2" t="n">
-        <v>54.0591193313019</v>
+        <v>54.06</v>
       </c>
       <c r="I2" t="n">
-        <v>54.0591193313019</v>
+        <v>54.06</v>
       </c>
       <c r="J2" t="n">
-        <v>54.0591193313019</v>
+        <v>54.06</v>
       </c>
       <c r="K2" t="n">
-        <v>55.740361117788</v>
+        <v>55.74</v>
       </c>
       <c r="L2" t="n">
-        <v>55.9467147087873</v>
+        <v>55.95</v>
       </c>
       <c r="M2" t="n">
-        <v>55.740361117788</v>
+        <v>55.74</v>
       </c>
       <c r="N2" t="n">
-        <v>55.740361117788</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="3">
@@ -599,12 +599,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0</v>
       </c>
@@ -648,11 +644,7 @@
           <t>Caustic Prices</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RMB/t FAW excl. VAT</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0</v>
       </c>
@@ -700,40 +692,40 @@
         <v>2000</v>
       </c>
       <c r="C6" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -746,40 +738,40 @@
         <v>2150</v>
       </c>
       <c r="C7" t="n">
-        <v>1720</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1881.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2042.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -792,40 +784,40 @@
         <v>2200</v>
       </c>
       <c r="C8" t="n">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -838,40 +830,40 @@
         <v>2250</v>
       </c>
       <c r="C9" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2137.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -884,40 +876,40 @@
         <v>2300</v>
       </c>
       <c r="C10" t="n">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2012.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -930,40 +922,40 @@
         <v>2200</v>
       </c>
       <c r="C11" t="n">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -976,40 +968,40 @@
         <v>2300</v>
       </c>
       <c r="C12" t="n">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2012.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1022,40 +1014,40 @@
         <v>2250</v>
       </c>
       <c r="C13" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2137.5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1068,49 +1060,45 @@
         <v>2000</v>
       </c>
       <c r="C14" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
         <v>0</v>
       </c>
@@ -1149,12 +1137,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
         <v>0</v>
       </c>
@@ -1198,11 +1182,7 @@
           <t>Lignitous Coal List Price</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>RMB/t FAW excl. VAT</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
@@ -1250,40 +1230,40 @@
         <v>500</v>
       </c>
       <c r="C18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1296,40 +1276,40 @@
         <v>414</v>
       </c>
       <c r="C19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>331.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1342,40 +1322,40 @@
         <v>400</v>
       </c>
       <c r="C20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1388,40 +1368,40 @@
         <v>533</v>
       </c>
       <c r="C21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>426.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1434,40 +1414,40 @@
         <v>535</v>
       </c>
       <c r="C22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1480,40 +1460,40 @@
         <v>386</v>
       </c>
       <c r="C23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>308.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1526,40 +1506,40 @@
         <v>550</v>
       </c>
       <c r="C24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>440.0000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1572,40 +1552,40 @@
         <v>480</v>
       </c>
       <c r="C25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1618,40 +1598,40 @@
         <v>450</v>
       </c>
       <c r="C26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
